--- a/Confusion Matrix Excel add-in/book.xlsx
+++ b/Confusion Matrix Excel add-in/book.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Администратор\Desktop\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Администратор\Desktop\Confusion Matrix Excel add-in\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>Prediction</t>
   </si>
@@ -75,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -83,88 +83,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -449,7 +389,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,9 +433,9 @@
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -523,159 +463,115 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="J6" t="e">
-        <f>COUNTIFS($A$2:$A$10,$I6,$B$2:$B$10,J$9)/COUNTIF($A$2:$A$10,$I6)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="J7" t="e">
-        <f>COUNTIFS($A$2:$A$10,$I7,$B$2:$B$10,J$9)/COUNTIF($A$2:$A$10,$I7)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="4" t="str">
-        <f>B1</f>
-        <v>Prediction</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="2"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="8" t="str">
-        <f>A1</f>
-        <v>Ture lablel</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="8"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7">
-        <f>COUNTIFS($A$2:$A$10,$I10,$B$2:$B$10,J$9)/COUNTIF($A$2:$A$10,$I10)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K10" s="7">
-        <f>COUNTIFS($A$2:$A$10,$I10,$B$2:$B$10,K$9)/COUNTIF($A$2:$A$10,I$10)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <f>COUNTIFS($A$2:$A$10,$I10,$B$2:$B$10,L$9)/COUNTIF($A$2:$A$10,$I10)</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="7">
-        <f>COUNTIFS($A$2:$A$10,$I11,$B$2:$B$10,J$9)/COUNTIF($A$2:$A$10,$I11)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K11" s="7">
-        <f>COUNTIFS($A$2:$A$10,$I11,$B$2:$B$10,K$9)/COUNTIF($A$2:$A$10,I$10)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <f>COUNTIFS($A$2:$A$10,$I11,$B$2:$B$10,L$9)/COUNTIF($A$2:$A$10,$I11)</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="7">
-        <f>COUNTIFS($A$2:$A$10,$I12,$B$2:$B$10,J$9)/COUNTIF($A$2:$A$10,$I12)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <f>COUNTIFS($A$2:$A$10,$I12,$B$2:$B$10,K$9)/COUNTIF($A$2:$A$10,I$10)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L12" s="7">
-        <f>COUNTIFS($A$2:$A$10,$I12,$B$2:$B$10,L$9)/COUNTIF($A$2:$A$10,$I12)</f>
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="17" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J17" s="2"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
     </row>
     <row r="18" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I19" s="2"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
       <c r="N22" s="2"/>
     </row>
     <row r="27" spans="9:14" x14ac:dyDescent="0.25">
@@ -695,9 +591,9 @@
     <row r="29" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
     </row>
     <row r="30" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J30" s="2"/>
@@ -709,23 +605,23 @@
     <row r="31" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
     </row>
     <row r="32" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J34" s="2"/>
@@ -744,9 +640,9 @@
     <row r="36" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
     </row>
     <row r="37" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J37" s="2"/>
@@ -758,23 +654,23 @@
     <row r="38" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
     </row>
     <row r="39" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
     </row>
     <row r="40" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
